--- a/grabDoll/config/shop.xlsx
+++ b/grabDoll/config/shop.xlsx
@@ -505,7 +505,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -591,7 +591,7 @@
         <v>60002</v>
       </c>
       <c r="B4">
-        <v>20001</v>
+        <v>20020</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>

--- a/grabDoll/config/shop.xlsx
+++ b/grabDoll/config/shop.xlsx
@@ -505,7 +505,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -614,7 +614,7 @@
         <v>60003</v>
       </c>
       <c r="B5">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -637,7 +637,7 @@
         <v>60004</v>
       </c>
       <c r="B6">
-        <v>20001</v>
+        <v>20003</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -660,7 +660,7 @@
         <v>60005</v>
       </c>
       <c r="B7">
-        <v>20001</v>
+        <v>20004</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -683,7 +683,7 @@
         <v>60006</v>
       </c>
       <c r="B8">
-        <v>20001</v>
+        <v>20005</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -706,7 +706,7 @@
         <v>60007</v>
       </c>
       <c r="B9">
-        <v>20001</v>
+        <v>20006</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -729,7 +729,7 @@
         <v>60008</v>
       </c>
       <c r="B10">
-        <v>20001</v>
+        <v>20007</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -752,7 +752,7 @@
         <v>60009</v>
       </c>
       <c r="B11">
-        <v>20001</v>
+        <v>20008</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -775,7 +775,7 @@
         <v>60010</v>
       </c>
       <c r="B12">
-        <v>20001</v>
+        <v>20009</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -798,7 +798,7 @@
         <v>60011</v>
       </c>
       <c r="B13">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -821,7 +821,7 @@
         <v>60012</v>
       </c>
       <c r="B14">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -844,7 +844,7 @@
         <v>60013</v>
       </c>
       <c r="B15">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -867,7 +867,7 @@
         <v>60014</v>
       </c>
       <c r="B16">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -890,7 +890,7 @@
         <v>60015</v>
       </c>
       <c r="B17">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -913,7 +913,7 @@
         <v>61001</v>
       </c>
       <c r="B18">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -936,7 +936,7 @@
         <v>61001</v>
       </c>
       <c r="B19">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -959,7 +959,7 @@
         <v>61002</v>
       </c>
       <c r="B20">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -982,7 +982,7 @@
         <v>61003</v>
       </c>
       <c r="B21">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -1005,7 +1005,7 @@
         <v>61004</v>
       </c>
       <c r="B22">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -1028,7 +1028,7 @@
         <v>61005</v>
       </c>
       <c r="B23">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
@@ -1051,7 +1051,7 @@
         <v>61006</v>
       </c>
       <c r="B24">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
@@ -1074,7 +1074,7 @@
         <v>61007</v>
       </c>
       <c r="B25">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
@@ -1097,7 +1097,7 @@
         <v>61008</v>
       </c>
       <c r="B26">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
@@ -1120,7 +1120,7 @@
         <v>61009</v>
       </c>
       <c r="B27">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
@@ -1143,7 +1143,7 @@
         <v>61010</v>
       </c>
       <c r="B28">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
@@ -1166,7 +1166,7 @@
         <v>62001</v>
       </c>
       <c r="B29">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -1189,7 +1189,7 @@
         <v>62002</v>
       </c>
       <c r="B30">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1212,7 +1212,7 @@
         <v>62003</v>
       </c>
       <c r="B31">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -1235,7 +1235,7 @@
         <v>62004</v>
       </c>
       <c r="B32">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -1258,7 +1258,7 @@
         <v>62005</v>
       </c>
       <c r="B33">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>

--- a/grabDoll/config/shop.xlsx
+++ b/grabDoll/config/shop.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <r>
       <rPr>
@@ -100,10 +100,6 @@
   </si>
   <si>
     <t>diamond</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>skin</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -502,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -567,8 +563,8 @@
       <c r="A3" s="5">
         <v>60001</v>
       </c>
-      <c r="B3">
-        <v>20001</v>
+      <c r="B3" s="4">
+        <v>20010</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -590,8 +586,8 @@
       <c r="A4" s="5">
         <v>60002</v>
       </c>
-      <c r="B4">
-        <v>20020</v>
+      <c r="B4" s="4">
+        <v>20011</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -613,17 +609,17 @@
       <c r="A5" s="5">
         <v>60003</v>
       </c>
-      <c r="B5">
-        <v>20002</v>
+      <c r="B5" s="4">
+        <v>20012</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -636,17 +632,17 @@
       <c r="A6" s="5">
         <v>60004</v>
       </c>
-      <c r="B6">
-        <v>20003</v>
+      <c r="B6" s="4">
+        <v>20013</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -659,17 +655,17 @@
       <c r="A7" s="5">
         <v>60005</v>
       </c>
-      <c r="B7">
-        <v>20004</v>
+      <c r="B7" s="4">
+        <v>20013</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -682,17 +678,17 @@
       <c r="A8" s="5">
         <v>60006</v>
       </c>
-      <c r="B8">
-        <v>20005</v>
+      <c r="B8" s="4">
+        <v>20014</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -705,17 +701,17 @@
       <c r="A9" s="5">
         <v>60007</v>
       </c>
-      <c r="B9">
-        <v>20006</v>
+      <c r="B9" s="4">
+        <v>20015</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -728,17 +724,17 @@
       <c r="A10" s="5">
         <v>60008</v>
       </c>
-      <c r="B10">
-        <v>20007</v>
+      <c r="B10" s="4">
+        <v>20016</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -751,17 +747,17 @@
       <c r="A11" s="5">
         <v>60009</v>
       </c>
-      <c r="B11">
-        <v>20008</v>
+      <c r="B11" s="4">
+        <v>20017</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E11">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -774,17 +770,17 @@
       <c r="A12" s="5">
         <v>60010</v>
       </c>
-      <c r="B12">
-        <v>20009</v>
+      <c r="B12" s="4">
+        <v>20018</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E12">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -794,487 +790,13 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
-        <v>60011</v>
-      </c>
-      <c r="B13">
-        <v>20002</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13">
-        <v>800</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
+      <c r="A13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="5">
-        <v>60012</v>
-      </c>
-      <c r="B14">
-        <v>20002</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14">
-        <v>800</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
+      <c r="A14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="5">
-        <v>60013</v>
-      </c>
-      <c r="B15">
-        <v>20002</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15">
-        <v>800</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
-        <v>60014</v>
-      </c>
-      <c r="B16">
-        <v>20002</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16">
-        <v>800</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A17" s="5">
-        <v>60015</v>
-      </c>
-      <c r="B17">
-        <v>20002</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17">
-        <v>800</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A18" s="5">
-        <v>61001</v>
-      </c>
-      <c r="B18">
-        <v>20002</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18">
-        <v>1000</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A19" s="5">
-        <v>61001</v>
-      </c>
-      <c r="B19">
-        <v>20002</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19">
-        <v>1000</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A20" s="5">
-        <v>61002</v>
-      </c>
-      <c r="B20">
-        <v>20002</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20">
-        <v>1000</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="5">
-        <v>61003</v>
-      </c>
-      <c r="B21">
-        <v>20002</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21">
-        <v>1000</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="5">
-        <v>61004</v>
-      </c>
-      <c r="B22">
-        <v>20002</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22">
-        <v>1000</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A23" s="5">
-        <v>61005</v>
-      </c>
-      <c r="B23">
-        <v>20002</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23">
-        <v>1000</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A24" s="5">
-        <v>61006</v>
-      </c>
-      <c r="B24">
-        <v>20002</v>
-      </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24">
-        <v>1000</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="5">
-        <v>61007</v>
-      </c>
-      <c r="B25">
-        <v>20002</v>
-      </c>
-      <c r="C25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25">
-        <v>1000</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A26" s="5">
-        <v>61008</v>
-      </c>
-      <c r="B26">
-        <v>20002</v>
-      </c>
-      <c r="C26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26">
-        <v>1000</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A27" s="5">
-        <v>61009</v>
-      </c>
-      <c r="B27">
-        <v>20002</v>
-      </c>
-      <c r="C27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27">
-        <v>1000</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="5">
-        <v>61010</v>
-      </c>
-      <c r="B28">
-        <v>20002</v>
-      </c>
-      <c r="C28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28">
-        <v>1000</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A29" s="5">
-        <v>62001</v>
-      </c>
-      <c r="B29">
-        <v>20002</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29">
-        <v>1000</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="5">
-        <v>62002</v>
-      </c>
-      <c r="B30">
-        <v>20002</v>
-      </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30">
-        <v>1000</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="5">
-        <v>62003</v>
-      </c>
-      <c r="B31">
-        <v>20002</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31">
-        <v>1000</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A32" s="5">
-        <v>62004</v>
-      </c>
-      <c r="B32">
-        <v>20002</v>
-      </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32">
-        <v>1000</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="5">
-        <v>62005</v>
-      </c>
-      <c r="B33">
-        <v>20002</v>
-      </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33">
-        <v>1000</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
+      <c r="A15" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
